--- a/project_work/optimizations.xlsx
+++ b/project_work/optimizations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nayah\Documents\cpuC-Project\project_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50717CD-BE90-4D50-A0DD-C6C0A8E62F91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18D9816-3498-4FFD-A76C-1885ABCB56D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <r>
       <t xml:space="preserve">CODE LINE </t>
@@ -422,6 +422,198 @@
   </si>
   <si>
     <t>the only thing that changes is R3 to R3+1, it's enough to add 1 to R1`</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = R2*C2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = R1*C8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <t>before command, we do it at the end of the loop</t>
+  </si>
+  <si>
+    <t>TRY #3</t>
+  </si>
+  <si>
+    <t>TRY #1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = R2*C2+C1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = R1*C8-1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(R2+x)*C2+R3 =&gt; R2*C2+x*C2+R3 =&gt; R1`+R3+x*C2 </t>
+  </si>
+  <si>
+    <t>(R2+x)*C2+R3 =&gt; R2*C2+x*C2+R3 =&gt; R1`+R3+x*C2 =&gt; R1`+x*C2</t>
+  </si>
+  <si>
+    <t>can use Radd0in_layer as R4?</t>
+  </si>
+  <si>
+    <t>only R3 changes to R3+1…</t>
   </si>
 </sst>
 </file>
@@ -485,10 +677,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,10 +986,10 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -804,173 +997,351 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="D9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
